--- a/delft_rentals_final.xlsx
+++ b/delft_rentals_final.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,21 +504,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Theodora Eigemanpad</t>
+          <t>Laan van Altena</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>900</v>
+        <v>2950</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1483294/theodora-eigemanpad/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1479738/laan-van-altena/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -527,27 +527,27 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>450</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Spoorsingel</t>
+          <t>Van Bleyswijckstraat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3000</v>
+        <v>350</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1459115/spoorsingel/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1480608/van-bleyswijckstraat/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -556,27 +556,27 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rotterdamseweg</t>
+          <t>Prins Mauritsstraat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2350</v>
+        <v>2750</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1468652/rotterdamseweg/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1484003/prins-mauritsstraat/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -585,27 +585,27 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>587.5</v>
+        <v>458.3333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Havenstraat</t>
+          <t>Theodora Eigemanpad</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2200</v>
+        <v>1205</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1471302/havenstraat/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1483948/theodora-eigemanpad/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -614,27 +614,27 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>550</v>
+        <v>401.6666666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Arthur van Schendelplein</t>
+          <t>Zuiderstraat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1525</v>
+        <v>846</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1471357/arthur-van-schendelplein/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1483900/zuiderstraat/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -643,27 +643,27 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>381.25</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Visstraat</t>
+          <t>Arthur van Schendelplein</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1000</v>
+        <v>1525</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1126172/visstraat/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1483760/arthur-van-schendelplein/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -672,27 +672,27 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>500</v>
+        <v>381.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Theodora Eigemanpad</t>
+          <t>Maria Vincentiastraat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1225</v>
+        <v>902</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1473597/theodora-eigemanpad/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1483293/maria-vincentiastraat/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -701,27 +701,27 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>408.3333333333333</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Arthur van Schendelplein</t>
+          <t>Spoorsingel</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1525</v>
+        <v>3000</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1474526/arthur-van-schendelplein/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1459115/spoorsingel/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -730,27 +730,27 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>381.25</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Delflandplein</t>
+          <t>Rotterdamseweg</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>907</v>
+        <v>2350</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1476939/delflandplein/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1468652/rotterdamseweg/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -759,27 +759,27 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>453.5</v>
+        <v>587.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Achterom</t>
+          <t>Theodora Eigemanpad</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1000</v>
+        <v>1305</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1478071/achterom/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1484082/theodora-eigemanpad/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -788,27 +788,27 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>500</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brabantse Turfmarkt</t>
+          <t>Visstraat</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1482256/brabantse-turfmarkt/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1126172/visstraat/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -817,27 +817,27 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Maria Vincentiastraat</t>
+          <t>Theodora Eigemanpad</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>902</v>
+        <v>1225</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1483293/maria-vincentiastraat/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1473597/theodora-eigemanpad/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -846,27 +846,27 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>451</v>
+        <v>408.3333333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Arthur van Schendelplein</t>
+          <t>Delflandplein</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1525</v>
+        <v>907</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1478931/arthur-van-schendelplein/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1476939/delflandplein/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -875,27 +875,27 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>381.25</v>
+        <v>453.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Giststraat</t>
+          <t>Vrijenbanselaan</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1800</v>
+        <v>1405</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1478461/giststraat/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1490491/vrijenbanselaan/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -904,27 +904,27 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>600</v>
+        <v>468.3333333333333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Arthur van Schendelplein</t>
+          <t>Cornelis Trompstraat</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1425</v>
+        <v>545</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1481639/arthur-van-schendelplein/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1481581/cornelis-trompstraat/</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>356.25</v>
+        <v>545</v>
       </c>
     </row>
     <row r="18">
@@ -968,21 +968,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Cornelis Trompstraat</t>
+          <t>Arthur van Schendelplein</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>545</v>
+        <v>1425</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1481581/cornelis-trompstraat/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1481639/arthur-van-schendelplein/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -991,27 +991,27 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>545</v>
+        <v>356.25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Van Bleyswijckstraat</t>
+          <t>Luxemburghof</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>350</v>
+        <v>3000</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1480608/van-bleyswijckstraat/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1482006/luxemburghof/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1020,27 +1020,27 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Luxemburghof</t>
+          <t>Arthur van Schendelplein</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3000</v>
+        <v>1525</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1482006/luxemburghof/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1471357/arthur-van-schendelplein/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>500</v>
+        <v>381.25</v>
       </c>
     </row>
     <row r="22">
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1555</v>
+        <v>1525</v>
       </c>
       <c r="C22" t="n">
         <v>4</v>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1479998/arthur-van-schendelplein/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1484310/arthur-van-schendelplein/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1078,27 +1078,27 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>388.75</v>
+        <v>381.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Laan van Altena</t>
+          <t>Martinus Nijhofflaan</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2950</v>
+        <v>1525</v>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1479738/laan-van-altena/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1484238/martinus-nijhofflaan/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1107,27 +1107,27 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>590</v>
+        <v>508.3333333333333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Kolk</t>
+          <t>Arthur van Schendelplein</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2950</v>
+        <v>1525</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1479583/kolk/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1487990/arthur-van-schendelplein/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1136,27 +1136,27 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>590</v>
+        <v>381.25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kolk</t>
+          <t>Havenstraat</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="C25" t="n">
         <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1479207/kolk/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1471302/havenstraat/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26">
@@ -1200,55 +1200,55 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Flat Achterom 86</t>
+          <t>Arthur van Schendelplein</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1000</v>
+        <v>1525</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/e8a4bd2d/achterom</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1474526/arthur-van-schendelplein/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>500</v>
+        <v>381.25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Flat Spoorsingel</t>
+          <t>Achterom</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/d55536c9/spoorsingel</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1478071/achterom/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1258,243 +1258,243 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Flat Achterom 119</t>
+          <t>Kolk</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/71411d55/achterom</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1479207/kolk/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>566.6666666666666</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Flat Arthur van Schendelplein 121</t>
+          <t>Hugo de Grootstraat</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1525</v>
+        <v>775</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/05d296ed/arthur-van-schendelplein</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1489881/hugo-de-grootstraat/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>381.25</v>
+        <v>387.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Flat Brabantse Turfmarkt 76 H</t>
+          <t>Giststraat</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1350</v>
+        <v>1800</v>
       </c>
       <c r="C31" t="n">
         <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/5e9e80f6/brabantse-turfmarkt</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1478461/giststraat/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Flat Havenstraat 14</t>
+          <t>Brabantse Turfmarkt</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2200</v>
+        <v>1350</v>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/02466f06/havenstraat</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1482256/brabantse-turfmarkt/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Flat Arthur van Schendelplein 22</t>
+          <t>Fabrieksstraat</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1525</v>
+        <v>2300</v>
       </c>
       <c r="C33" t="n">
         <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/216f28a7/arthur-van-schendelplein</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1485680/fabrieksstraat/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>381.25</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Flat Arthur van Schendelplein 116</t>
+          <t>Van Foreestweg</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1525</v>
+        <v>1650</v>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/c8c06768/arthur-van-schendelplein</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1486394/van-foreestweg/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>381.25</v>
+        <v>550</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Flat Cornelis Trompstraat 92</t>
+          <t>Arthur van Schendelplein</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>545</v>
+        <v>1525</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/40e0d0d0/cornelis-trompstraat</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1486782/arthur-van-schendelplein/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>545</v>
+        <v>381.25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Flat Bosboom-Toussaintplein</t>
+          <t>Kolk</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1050</v>
+        <v>2950</v>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/4ff7b1a6/bosboom-toussaintplein</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1479583/kolk/</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>350</v>
+        <v>590</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Flat Arthur van Schendelplein 30</t>
+          <t>Arthur van Schendelplein</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1395</v>
+        <v>1525</v>
       </c>
       <c r="C37" t="n">
         <v>4</v>
@@ -1504,171 +1504,171 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/ce5c7902/arthur-van-schendelplein</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1478931/arthur-van-schendelplein/</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>348.75</v>
+        <v>381.25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>House Giststraat</t>
+          <t>Arthur van Schendelplein</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1800</v>
+        <v>1525</v>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/house-for-rent/delft/d1411ff8/giststraat</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1488009/arthur-van-schendelplein/</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>600</v>
+        <v>381.25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Flat Molenweide 13</t>
+          <t>Buitenwatersloot</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1595</v>
+        <v>2200</v>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/bf2e0d04/molenweide</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1488354/buitenwatersloot/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>531.6666666666666</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>House Kolk 16 A</t>
+          <t>Arnoldstraat</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="C40" t="n">
         <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/house-for-rent/delft/560e7686/kolk</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1488903/arnoldstraat/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>600</v>
+        <v>575</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Flat Arthur van Schendelplein 196</t>
+          <t>Martinus Nijhofflaan</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1525</v>
+        <v>1650</v>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/9bd96077/arthur-van-schendelplein</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1488986/martinus-nijhofflaan/</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>381.25</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>House Laan van Altena 10</t>
+          <t>Weegplaats</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2950</v>
+        <v>2200</v>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/house-for-rent/delft/c90583ad/laan-van-altena</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1489359/weegplaats/</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>590</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Flat Arthur van Schendelplein 165</t>
+          <t>Arthur van Schendelplein</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1555</v>
+        <v>1525</v>
       </c>
       <c r="C43" t="n">
         <v>4</v>
@@ -1678,152 +1678,152 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/4e42295b/arthur-van-schendelplein</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1489778/arthur-van-schendelplein/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>388.75</v>
+        <v>381.25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Room Van Bleyswijckstraat</t>
+          <t>Oliemolen</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>350</v>
+        <v>1850</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/room-for-rent/delft/4bd91af1/van-bleyswijckstraat</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1489833/oliemolen/</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>350</v>
+        <v>462.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>House Amazoneweg 64</t>
+          <t>Theodora Eigemanpad</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2200</v>
+        <v>1290</v>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/house-for-rent/delft/ef26c5da/amazoneweg</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1487955/theodora-eigemanpad/</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Flat Arthur van Schendelplein 6</t>
+          <t>Fabrieksstraat</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1425</v>
+        <v>2300</v>
       </c>
       <c r="C46" t="n">
         <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/322ef25f/arthur-van-schendelplein</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1489870/fabrieksstraat/</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>356.25</v>
+        <v>575</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>House Luxemburghof 37</t>
+          <t>Arthur van Schendelplein</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3000</v>
+        <v>1555</v>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/house-for-rent/delft/b78c4d5f/luxemburghof</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1479998/arthur-van-schendelplein/</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>500</v>
+        <v>388.75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Flat Rotterdamseweg</t>
+          <t>House Schuttersveld 39</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2350</v>
+        <v>2600</v>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/7b57ee77/rotterdamseweg</t>
+          <t>https://www.pararius.com/house-for-rent/delft/b9dfd969/schuttersveld</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1832,36 +1832,1167 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>587.5</v>
+        <v>520</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>House Schuttersveld 39</t>
+          <t>Room Van Bleyswijckstraat</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2600</v>
+        <v>350</v>
       </c>
       <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>25</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/room-for-rent/delft/4bd91af1/van-bleyswijckstraat</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Flat Arthur van Schendelplein 165</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1555</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4</v>
+      </c>
+      <c r="D50" t="n">
+        <v>94</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/4e42295b/arthur-van-schendelplein</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>388.75</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>House Luxemburghof 37</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6</v>
+      </c>
+      <c r="D51" t="n">
+        <v>165</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/house-for-rent/delft/b78c4d5f/luxemburghof</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>House Amazoneweg 64</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2200</v>
+      </c>
+      <c r="C52" t="n">
         <v>5</v>
       </c>
-      <c r="D49" t="n">
-        <v>150</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>https://www.pararius.com/house-for-rent/delft/b9dfd969/schuttersveld</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>pararius</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>520</v>
+      <c r="D52" t="n">
+        <v>119</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/house-for-rent/delft/ef26c5da/amazoneweg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Flat Arthur van Schendelplein 13</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4</v>
+      </c>
+      <c r="D53" t="n">
+        <v>94</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/6e560087/arthur-van-schendelplein</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>381.25</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Flat Cornelis Trompstraat 92</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>545</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>12</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/40e0d0d0/cornelis-trompstraat</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Flat Arthur van Schendelplein 138</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" t="n">
+        <v>94</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/a022f8d0/arthur-van-schendelplein</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>381.25</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Flat Bosboom-Toussaintplein</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" t="n">
+        <v>65</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/4ff7b1a6/bosboom-toussaintplein</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Flat Molenweide 13</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1595</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3</v>
+      </c>
+      <c r="D57" t="n">
+        <v>63</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/bf2e0d04/molenweide</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>531.6666666666666</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Flat Rotterdamseweg</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2350</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" t="n">
+        <v>83</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/7b57ee77/rotterdamseweg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>587.5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Flat Arthur van Schendelplein 22</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" t="n">
+        <v>94</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/216f28a7/arthur-van-schendelplein</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>381.25</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Flat Achterom 86</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>40</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/e8a4bd2d/achterom</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Flat Fabrieksstraat 174</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2300</v>
+      </c>
+      <c r="C61" t="n">
+        <v>4</v>
+      </c>
+      <c r="D61" t="n">
+        <v>102</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/dd401493/fabrieksstraat</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>House Laan van Altena 10</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2950</v>
+      </c>
+      <c r="C62" t="n">
+        <v>5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>104</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/house-for-rent/delft/c90583ad/laan-van-altena</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Flat Arthur van Schendelplein 6</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1425</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4</v>
+      </c>
+      <c r="D63" t="n">
+        <v>94</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/322ef25f/arthur-van-schendelplein</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>356.25</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>House Prins Mauritsstraat</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2750</v>
+      </c>
+      <c r="C64" t="n">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>133</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/house-for-rent/delft/8f1ad6a7/prins-mauritsstraat</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>458.3333333333333</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Flat Martinus Nijhofflaan</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1650</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>75</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/e844b859/martinus-nijhofflaan</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Flat Arthur van Schendelplein 56</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C66" t="n">
+        <v>4</v>
+      </c>
+      <c r="D66" t="n">
+        <v>94</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/19495162/arthur-van-schendelplein</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>381.25</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>House Oliemolen</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1850</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4</v>
+      </c>
+      <c r="D67" t="n">
+        <v>90</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/house-for-rent/delft/8ca210c2/oliemolen</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>462.5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Flat Arthur van Schendelplein 121</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4</v>
+      </c>
+      <c r="D68" t="n">
+        <v>94</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/05d296ed/arthur-van-schendelplein</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>381.25</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>House Giststraat</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>90</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/house-for-rent/delft/d1411ff8/giststraat</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Flat Buitenwatersloot 8 C</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2200</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4</v>
+      </c>
+      <c r="D70" t="n">
+        <v>115</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/85f1fe00/buitenwatersloot</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Flat Arthur van Schendelplein 177</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C71" t="n">
+        <v>4</v>
+      </c>
+      <c r="D71" t="n">
+        <v>94</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/eb804002/arthur-van-schendelplein</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>381.25</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Studio Rotterdamseweg</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>904</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" t="n">
+        <v>35</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/studio-for-rent/delft/87ebda32/rotterdamseweg</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Flat Arthur van Schendelplein 153</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4</v>
+      </c>
+      <c r="D73" t="n">
+        <v>94</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/4536a63d/arthur-van-schendelplein</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>381.25</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>House Weegplaats 4</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2200</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4</v>
+      </c>
+      <c r="D74" t="n">
+        <v>97</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/house-for-rent/delft/08e9019b/weegplaats</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Flat Arnoldstraat 24</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2300</v>
+      </c>
+      <c r="C75" t="n">
+        <v>4</v>
+      </c>
+      <c r="D75" t="n">
+        <v>100</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/fa0be053/arnoldstraat</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Flat Hugo de Grootstraat</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1750</v>
+      </c>
+      <c r="C76" t="n">
+        <v>4</v>
+      </c>
+      <c r="D76" t="n">
+        <v>100</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/0bb3c22d/hugo-de-grootstraat</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>437.5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Flat Arthur van Schendelplein 196</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C77" t="n">
+        <v>4</v>
+      </c>
+      <c r="D77" t="n">
+        <v>94</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/9bd96077/arthur-van-schendelplein</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>381.25</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Flat Arthur van Schendelplein 30</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1395</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4</v>
+      </c>
+      <c r="D78" t="n">
+        <v>94</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/ce5c7902/arthur-van-schendelplein</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>348.75</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Flat Arthur van Schendelplein 116</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C79" t="n">
+        <v>4</v>
+      </c>
+      <c r="D79" t="n">
+        <v>94</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/c8c06768/arthur-van-schendelplein</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>381.25</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Flat Havenstraat 14</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2200</v>
+      </c>
+      <c r="C80" t="n">
+        <v>4</v>
+      </c>
+      <c r="D80" t="n">
+        <v>139</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/02466f06/havenstraat</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Flat Spoorsingel</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C81" t="n">
+        <v>6</v>
+      </c>
+      <c r="D81" t="n">
+        <v>179</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/d55536c9/spoorsingel</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Flat Arthur van Schendelplein 76</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C82" t="n">
+        <v>4</v>
+      </c>
+      <c r="D82" t="n">
+        <v>94</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/19751b43/arthur-van-schendelplein</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>381.25</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Flat Achterom 119</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3</v>
+      </c>
+      <c r="D83" t="n">
+        <v>90</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/71411d55/achterom</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>566.6666666666666</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>House Kolk 16 A</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2400</v>
+      </c>
+      <c r="C84" t="n">
+        <v>4</v>
+      </c>
+      <c r="D84" t="n">
+        <v>125</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/house-for-rent/delft/560e7686/kolk</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Flat Vrijenbanselaan</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1405</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3</v>
+      </c>
+      <c r="D85" t="n">
+        <v>57</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/42bb094d/vrijenbanselaan</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>468.3333333333333</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Flat Brabantse Turfmarkt 76 H</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3</v>
+      </c>
+      <c r="D86" t="n">
+        <v>32</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/5e9e80f6/brabantse-turfmarkt</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Flat Martinus Nijhofflaan</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3</v>
+      </c>
+      <c r="D87" t="n">
+        <v>72</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/32b10a7b/martinus-nijhofflaan</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>508.3333333333333</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Flat Fabrieksstraat</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2300</v>
+      </c>
+      <c r="C88" t="n">
+        <v>4</v>
+      </c>
+      <c r="D88" t="n">
+        <v>102</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/a1ea8754/fabrieksstraat</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -1923,21 +3054,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cornelis Trompstraat</t>
+          <t>Van Bleyswijckstraat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>545</v>
+        <v>350</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1481581/cornelis-trompstraat/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1480608/van-bleyswijckstraat/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1946,27 +3077,27 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>545</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Van Bleyswijckstraat</t>
+          <t>Cornelis Trompstraat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>350</v>
+        <v>545</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1480608/van-bleyswijckstraat/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1481581/cornelis-trompstraat/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1975,27 +3106,27 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>350</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Flat Cornelis Trompstraat 92</t>
+          <t>Room Van Bleyswijckstraat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>545</v>
+        <v>350</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/40e0d0d0/cornelis-trompstraat</t>
+          <t>https://www.pararius.com/room-for-rent/delft/4bd91af1/van-bleyswijckstraat</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2004,27 +3135,27 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>545</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Room Van Bleyswijckstraat</t>
+          <t>Flat Cornelis Trompstraat 92</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>350</v>
+        <v>545</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/room-for-rent/delft/4bd91af1/van-bleyswijckstraat</t>
+          <t>https://www.pararius.com/apartment-for-rent/delft/40e0d0d0/cornelis-trompstraat</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2033,7 +3164,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>350</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -2047,7 +3178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2124,21 +3255,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Theodora Eigemanpad</t>
+          <t>Laan van Altena</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>900</v>
+        <v>2950</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1483294/theodora-eigemanpad/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1479738/laan-van-altena/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2147,27 +3278,27 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>450</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Spoorsingel</t>
+          <t>Prins Mauritsstraat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3000</v>
+        <v>2750</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1459115/spoorsingel/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1484003/prins-mauritsstraat/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2176,27 +3307,27 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>500</v>
+        <v>458.3333333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rotterdamseweg</t>
+          <t>Theodora Eigemanpad</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2350</v>
+        <v>1205</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1468652/rotterdamseweg/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1483948/theodora-eigemanpad/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2205,27 +3336,27 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>587.5</v>
+        <v>401.6666666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Havenstraat</t>
+          <t>Zuiderstraat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2200</v>
+        <v>846</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1471302/havenstraat/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1483900/zuiderstraat/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2234,7 +3365,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>550</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7">
@@ -2254,7 +3385,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1471357/arthur-van-schendelplein/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1483760/arthur-van-schendelplein/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2269,21 +3400,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Visstraat</t>
+          <t>Maria Vincentiastraat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1000</v>
+        <v>902</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1126172/visstraat/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1483293/maria-vincentiastraat/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2292,27 +3423,27 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>500</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Theodora Eigemanpad</t>
+          <t>Spoorsingel</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1225</v>
+        <v>3000</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1473597/theodora-eigemanpad/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1459115/spoorsingel/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2321,27 +3452,27 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>408.3333333333333</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Arthur van Schendelplein</t>
+          <t>Rotterdamseweg</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1525</v>
+        <v>2350</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1474526/arthur-van-schendelplein/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1468652/rotterdamseweg/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -2350,27 +3481,27 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>381.25</v>
+        <v>587.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Delflandplein</t>
+          <t>Theodora Eigemanpad</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>907</v>
+        <v>1305</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1476939/delflandplein/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1484082/theodora-eigemanpad/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2379,13 +3510,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>453.5</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Achterom</t>
+          <t>Visstraat</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2395,11 +3526,11 @@
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1478071/achterom/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1126172/visstraat/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2414,21 +3545,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brabantse Turfmarkt</t>
+          <t>Theodora Eigemanpad</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1350</v>
+        <v>1225</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1482256/brabantse-turfmarkt/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1473597/theodora-eigemanpad/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2437,27 +3568,27 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>450</v>
+        <v>408.3333333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Maria Vincentiastraat</t>
+          <t>Delflandplein</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1483293/maria-vincentiastraat/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1476939/delflandplein/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2466,27 +3597,27 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>451</v>
+        <v>453.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Arthur van Schendelplein</t>
+          <t>Vrijenbanselaan</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1525</v>
+        <v>1405</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1478931/arthur-van-schendelplein/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1490491/vrijenbanselaan/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2495,27 +3626,27 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>381.25</v>
+        <v>468.3333333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Giststraat</t>
+          <t>Arthur van Schendelplein</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1800</v>
+        <v>1395</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1478461/giststraat/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1481638/arthur-van-schendelplein/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2524,7 +3655,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>600</v>
+        <v>348.75</v>
       </c>
     </row>
     <row r="17">
@@ -2559,21 +3690,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Arthur van Schendelplein</t>
+          <t>Luxemburghof</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1395</v>
+        <v>3000</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1481638/arthur-van-schendelplein/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1482006/luxemburghof/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2582,27 +3713,27 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>348.75</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Luxemburghof</t>
+          <t>Arthur van Schendelplein</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3000</v>
+        <v>1525</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1482006/luxemburghof/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1471357/arthur-van-schendelplein/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2611,7 +3742,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>500</v>
+        <v>381.25</v>
       </c>
     </row>
     <row r="20">
@@ -2621,7 +3752,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1555</v>
+        <v>1525</v>
       </c>
       <c r="C20" t="n">
         <v>4</v>
@@ -2631,7 +3762,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1479998/arthur-van-schendelplein/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1484310/arthur-van-schendelplein/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2640,27 +3771,27 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>388.75</v>
+        <v>381.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Laan van Altena</t>
+          <t>Martinus Nijhofflaan</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2950</v>
+        <v>1525</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1479738/laan-van-altena/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1484238/martinus-nijhofflaan/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2669,27 +3800,27 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>590</v>
+        <v>508.3333333333333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Kolk</t>
+          <t>Arthur van Schendelplein</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2950</v>
+        <v>1525</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1479583/kolk/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1487990/arthur-van-schendelplein/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2698,27 +3829,27 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>590</v>
+        <v>381.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Kolk</t>
+          <t>Havenstraat</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="C23" t="n">
         <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.huurwoningen.nl/huren/delft/1479207/kolk/</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1471302/havenstraat/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2727,7 +3858,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24">
@@ -2762,55 +3893,55 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Flat Achterom 86</t>
+          <t>Arthur van Schendelplein</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1000</v>
+        <v>1525</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/e8a4bd2d/achterom</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1474526/arthur-van-schendelplein/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>500</v>
+        <v>381.25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Flat Spoorsingel</t>
+          <t>Achterom</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/d55536c9/spoorsingel</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1478071/achterom/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2820,552 +3951,1683 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Flat Achterom 119</t>
+          <t>Kolk</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/71411d55/achterom</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1479207/kolk/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>566.6666666666666</v>
+        <v>600</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Flat Arthur van Schendelplein 121</t>
+          <t>Hugo de Grootstraat</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1525</v>
+        <v>775</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/05d296ed/arthur-van-schendelplein</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1489881/hugo-de-grootstraat/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>381.25</v>
+        <v>387.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Flat Brabantse Turfmarkt 76 H</t>
+          <t>Giststraat</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1350</v>
+        <v>1800</v>
       </c>
       <c r="C29" t="n">
         <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/5e9e80f6/brabantse-turfmarkt</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1478461/giststraat/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Flat Havenstraat 14</t>
+          <t>Brabantse Turfmarkt</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2200</v>
+        <v>1350</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/02466f06/havenstraat</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1482256/brabantse-turfmarkt/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Flat Arthur van Schendelplein 22</t>
+          <t>Fabrieksstraat</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1525</v>
+        <v>2300</v>
       </c>
       <c r="C31" t="n">
         <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/216f28a7/arthur-van-schendelplein</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1485680/fabrieksstraat/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>381.25</v>
+        <v>575</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Flat Arthur van Schendelplein 116</t>
+          <t>Van Foreestweg</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1525</v>
+        <v>1650</v>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/c8c06768/arthur-van-schendelplein</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1486394/van-foreestweg/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>381.25</v>
+        <v>550</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Flat Bosboom-Toussaintplein</t>
+          <t>Arthur van Schendelplein</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1050</v>
+        <v>1525</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/4ff7b1a6/bosboom-toussaintplein</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1486782/arthur-van-schendelplein/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>350</v>
+        <v>381.25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Flat Arthur van Schendelplein 30</t>
+          <t>Kolk</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1395</v>
+        <v>2950</v>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/ce5c7902/arthur-van-schendelplein</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1479583/kolk/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>348.75</v>
+        <v>590</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>House Giststraat</t>
+          <t>Arthur van Schendelplein</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1800</v>
+        <v>1525</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/house-for-rent/delft/d1411ff8/giststraat</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1478931/arthur-van-schendelplein/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>600</v>
+        <v>381.25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Flat Molenweide 13</t>
+          <t>Arthur van Schendelplein</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1595</v>
+        <v>1525</v>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/bf2e0d04/molenweide</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1488009/arthur-van-schendelplein/</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>531.6666666666666</v>
+        <v>381.25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>House Kolk 16 A</t>
+          <t>Buitenwatersloot</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="C37" t="n">
         <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/house-for-rent/delft/560e7686/kolk</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1488354/buitenwatersloot/</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Flat Arthur van Schendelplein 196</t>
+          <t>Arnoldstraat</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1525</v>
+        <v>2300</v>
       </c>
       <c r="C38" t="n">
         <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/9bd96077/arthur-van-schendelplein</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1488903/arnoldstraat/</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>381.25</v>
+        <v>575</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>House Laan van Altena 10</t>
+          <t>Martinus Nijhofflaan</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2950</v>
+        <v>1650</v>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/house-for-rent/delft/c90583ad/laan-van-altena</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1488986/martinus-nijhofflaan/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>590</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Flat Arthur van Schendelplein 165</t>
+          <t>Weegplaats</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1555</v>
+        <v>2200</v>
       </c>
       <c r="C40" t="n">
         <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/4e42295b/arthur-van-schendelplein</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1489359/weegplaats/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>388.75</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>House Amazoneweg 64</t>
+          <t>Arthur van Schendelplein</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2200</v>
+        <v>1525</v>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/house-for-rent/delft/ef26c5da/amazoneweg</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1489778/arthur-van-schendelplein/</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>440</v>
+        <v>381.25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Flat Arthur van Schendelplein 6</t>
+          <t>Oliemolen</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1425</v>
+        <v>1850</v>
       </c>
       <c r="C42" t="n">
         <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/322ef25f/arthur-van-schendelplein</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1489833/oliemolen/</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>356.25</v>
+        <v>462.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>House Luxemburghof 37</t>
+          <t>Theodora Eigemanpad</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3000</v>
+        <v>1290</v>
       </c>
       <c r="C43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/house-for-rent/delft/b78c4d5f/luxemburghof</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1487955/theodora-eigemanpad/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Flat Rotterdamseweg</t>
+          <t>Fabrieksstraat</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2350</v>
+        <v>2300</v>
       </c>
       <c r="C44" t="n">
         <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://www.pararius.com/apartment-for-rent/delft/7b57ee77/rotterdamseweg</t>
+          <t>https://www.huurwoningen.nl/huren/delft/1489870/fabrieksstraat/</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>pararius</t>
+          <t>huurwoningen</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>587.5</v>
+        <v>575</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>Arthur van Schendelplein</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1555</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" t="n">
+        <v>94</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://www.huurwoningen.nl/huren/delft/1479998/arthur-van-schendelplein/</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>huurwoningen</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>388.75</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>House Schuttersveld 39</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B46" t="n">
         <v>2600</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C46" t="n">
         <v>5</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D46" t="n">
         <v>150</v>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.pararius.com/house-for-rent/delft/b9dfd969/schuttersveld</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>pararius</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
         <v>520</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Flat Arthur van Schendelplein 165</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1555</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>94</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/4e42295b/arthur-van-schendelplein</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>388.75</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>House Luxemburghof 37</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C48" t="n">
+        <v>6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>165</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/house-for-rent/delft/b78c4d5f/luxemburghof</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>House Amazoneweg 64</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2200</v>
+      </c>
+      <c r="C49" t="n">
+        <v>5</v>
+      </c>
+      <c r="D49" t="n">
+        <v>119</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/house-for-rent/delft/ef26c5da/amazoneweg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Flat Arthur van Schendelplein 13</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4</v>
+      </c>
+      <c r="D50" t="n">
+        <v>94</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/6e560087/arthur-van-schendelplein</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>381.25</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Flat Arthur van Schendelplein 138</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4</v>
+      </c>
+      <c r="D51" t="n">
+        <v>94</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/a022f8d0/arthur-van-schendelplein</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>381.25</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Flat Bosboom-Toussaintplein</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3</v>
+      </c>
+      <c r="D52" t="n">
+        <v>65</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/4ff7b1a6/bosboom-toussaintplein</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Flat Molenweide 13</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1595</v>
+      </c>
+      <c r="C53" t="n">
+        <v>3</v>
+      </c>
+      <c r="D53" t="n">
+        <v>63</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/bf2e0d04/molenweide</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>531.6666666666666</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Flat Rotterdamseweg</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2350</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4</v>
+      </c>
+      <c r="D54" t="n">
+        <v>83</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/7b57ee77/rotterdamseweg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>587.5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Flat Arthur van Schendelplein 22</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" t="n">
+        <v>94</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/216f28a7/arthur-van-schendelplein</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>381.25</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Flat Achterom 86</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>40</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/e8a4bd2d/achterom</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Flat Fabrieksstraat 174</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2300</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" t="n">
+        <v>102</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/dd401493/fabrieksstraat</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>House Laan van Altena 10</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2950</v>
+      </c>
+      <c r="C58" t="n">
+        <v>5</v>
+      </c>
+      <c r="D58" t="n">
+        <v>104</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/house-for-rent/delft/c90583ad/laan-van-altena</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Flat Arthur van Schendelplein 6</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1425</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" t="n">
+        <v>94</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/322ef25f/arthur-van-schendelplein</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>356.25</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>House Prins Mauritsstraat</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2750</v>
+      </c>
+      <c r="C60" t="n">
+        <v>6</v>
+      </c>
+      <c r="D60" t="n">
+        <v>133</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/house-for-rent/delft/8f1ad6a7/prins-mauritsstraat</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>458.3333333333333</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Flat Martinus Nijhofflaan</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1650</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3</v>
+      </c>
+      <c r="D61" t="n">
+        <v>75</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/e844b859/martinus-nijhofflaan</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Flat Arthur van Schendelplein 56</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4</v>
+      </c>
+      <c r="D62" t="n">
+        <v>94</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/19495162/arthur-van-schendelplein</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>381.25</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>House Oliemolen</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1850</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4</v>
+      </c>
+      <c r="D63" t="n">
+        <v>90</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/house-for-rent/delft/8ca210c2/oliemolen</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>462.5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Flat Arthur van Schendelplein 121</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4</v>
+      </c>
+      <c r="D64" t="n">
+        <v>94</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/05d296ed/arthur-van-schendelplein</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>381.25</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>House Giststraat</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>90</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/house-for-rent/delft/d1411ff8/giststraat</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Flat Buitenwatersloot 8 C</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2200</v>
+      </c>
+      <c r="C66" t="n">
+        <v>4</v>
+      </c>
+      <c r="D66" t="n">
+        <v>115</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/85f1fe00/buitenwatersloot</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Flat Arthur van Schendelplein 177</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4</v>
+      </c>
+      <c r="D67" t="n">
+        <v>94</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/eb804002/arthur-van-schendelplein</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>381.25</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Studio Rotterdamseweg</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>904</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>35</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/studio-for-rent/delft/87ebda32/rotterdamseweg</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Flat Arthur van Schendelplein 153</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4</v>
+      </c>
+      <c r="D69" t="n">
+        <v>94</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/4536a63d/arthur-van-schendelplein</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>381.25</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>House Weegplaats 4</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2200</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4</v>
+      </c>
+      <c r="D70" t="n">
+        <v>97</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/house-for-rent/delft/08e9019b/weegplaats</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Flat Arnoldstraat 24</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2300</v>
+      </c>
+      <c r="C71" t="n">
+        <v>4</v>
+      </c>
+      <c r="D71" t="n">
+        <v>100</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/fa0be053/arnoldstraat</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Flat Hugo de Grootstraat</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1750</v>
+      </c>
+      <c r="C72" t="n">
+        <v>4</v>
+      </c>
+      <c r="D72" t="n">
+        <v>100</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/0bb3c22d/hugo-de-grootstraat</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>437.5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Flat Arthur van Schendelplein 196</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4</v>
+      </c>
+      <c r="D73" t="n">
+        <v>94</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/9bd96077/arthur-van-schendelplein</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>381.25</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Flat Arthur van Schendelplein 30</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1395</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4</v>
+      </c>
+      <c r="D74" t="n">
+        <v>94</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/ce5c7902/arthur-van-schendelplein</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>348.75</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Flat Arthur van Schendelplein 116</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C75" t="n">
+        <v>4</v>
+      </c>
+      <c r="D75" t="n">
+        <v>94</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/c8c06768/arthur-van-schendelplein</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>381.25</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Flat Havenstraat 14</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2200</v>
+      </c>
+      <c r="C76" t="n">
+        <v>4</v>
+      </c>
+      <c r="D76" t="n">
+        <v>139</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/02466f06/havenstraat</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Flat Spoorsingel</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C77" t="n">
+        <v>6</v>
+      </c>
+      <c r="D77" t="n">
+        <v>179</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/d55536c9/spoorsingel</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Flat Arthur van Schendelplein 76</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4</v>
+      </c>
+      <c r="D78" t="n">
+        <v>94</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/19751b43/arthur-van-schendelplein</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>381.25</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Flat Achterom 119</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3</v>
+      </c>
+      <c r="D79" t="n">
+        <v>90</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/71411d55/achterom</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>566.6666666666666</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>House Kolk 16 A</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2400</v>
+      </c>
+      <c r="C80" t="n">
+        <v>4</v>
+      </c>
+      <c r="D80" t="n">
+        <v>125</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/house-for-rent/delft/560e7686/kolk</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Flat Vrijenbanselaan</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1405</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3</v>
+      </c>
+      <c r="D81" t="n">
+        <v>57</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/42bb094d/vrijenbanselaan</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>468.3333333333333</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Flat Brabantse Turfmarkt 76 H</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3</v>
+      </c>
+      <c r="D82" t="n">
+        <v>32</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/5e9e80f6/brabantse-turfmarkt</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Flat Martinus Nijhofflaan</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3</v>
+      </c>
+      <c r="D83" t="n">
+        <v>72</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/32b10a7b/martinus-nijhofflaan</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>508.3333333333333</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Flat Fabrieksstraat</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2300</v>
+      </c>
+      <c r="C84" t="n">
+        <v>4</v>
+      </c>
+      <c r="D84" t="n">
+        <v>102</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://www.pararius.com/apartment-for-rent/delft/a1ea8754/fabrieksstraat</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>pararius</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>575</v>
       </c>
     </row>
   </sheetData>
